--- a/server-res/excel/Cfg_ItemFormula.xlsx
+++ b/server-res/excel/Cfg_ItemFormula.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>int32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +33,6 @@
     <t>合成类型</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合成出来的物品类型ID</t>
   </si>
   <si>
@@ -55,9 +48,6 @@
     <t>成功率</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>succ_rate</t>
   </si>
   <si>
@@ -74,9 +64,6 @@
   </si>
   <si>
     <t>req_data_list</t>
-  </si>
-  <si>
-    <t>repeated ReqData</t>
   </si>
   <si>
     <t>材料列表</t>
@@ -90,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,6 +139,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -199,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,28 +458,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="7"/>
@@ -509,28 +499,28 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -541,29 +531,29 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
+      <c r="A3" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10100001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -574,17 +564,17 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>10000001</v>
+      <c r="A4" s="3">
+        <v>10000002</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>10100001</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -596,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -605,39 +595,6 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>10000002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10100001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server-res/excel/Cfg_ItemFormula.xlsx
+++ b/server-res/excel/Cfg_ItemFormula.xlsx
@@ -70,7 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"req_type":"1","req_num":"1000"},{"req_type":"2","req_num":"1000"}]</t>
+    <t>[{"req_type":1,"req_num":1000},{"req_type":2,"req_num":1000}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:XFD2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
